--- a/documents/templates/BulkUploadRawMaterialTemplate.xlsx
+++ b/documents/templates/BulkUploadRawMaterialTemplate.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2611E04-E294-7F40-A5E0-147DFF6284F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13150984-184D-F449-B62D-D89BA2249274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{E126493D-8F71-564F-8C7E-F6C0A4D46ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Material Type</t>
   </si>
@@ -43,13 +43,52 @@
   </si>
   <si>
     <t>Raw Material Number</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>0.65X1250x2540_GI D Grade SHT SP 120 GSM</t>
+  </si>
+  <si>
+    <t>914005058146</t>
+  </si>
+  <si>
+    <t> 914005058179</t>
+  </si>
+  <si>
+    <t>0.65X840X3300_GI SHT SK PASS 120 GSM</t>
+  </si>
+  <si>
+    <t>0.65X1250X3928_GI D Grade SHT SP 120 GSM ONLY PANELLING</t>
+  </si>
+  <si>
+    <t>914005068133</t>
+  </si>
+  <si>
+    <t>914005068084</t>
+  </si>
+  <si>
+    <t>914005068003</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>1.25x30x40x7200 mm GI TUBE,120GSM</t>
+  </si>
+  <si>
+    <t>19X19X1.25 X6000   GI Tube</t>
+  </si>
+  <si>
+    <t>30x30x1.55x6000 MM GP Tube, 120 GSM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +101,11 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -79,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,14 +131,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,17 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A600D877-B6BF-CB47-8F64-062AD44C5B63}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -437,6 +503,78 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>914005058181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
